--- a/prepro_epoched_data/channelsremoved.xlsx
+++ b/prepro_epoched_data/channelsremoved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ema36\OneDrive\Documents\fNIRSandGerbils\prepro_epoched_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246E0885-C40F-4223-A87E-385048808B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1544F-1056-4B6C-A9F4-B8E7EADC3D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -418,6 +418,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>7004</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>7006</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/prepro_epoched_data/channelsremoved.xlsx
+++ b/prepro_epoched_data/channelsremoved.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ema36\OneDrive\Documents\fNIRSandGerbils\prepro_epoched_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ema36\OneDrive\Documents\LiMN Things\fNIRSandGerbils\prepro_epoched_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1544F-1056-4B6C-A9F4-B8E7EADC3D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCD4C5E-F1B4-4137-AD05-2EE7D6596CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Subject</t>
   </si>
   <si>
     <t>Number of Channels Removed</t>
+  </si>
+  <si>
+    <t>Triggers Too Close</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -394,23 +397,35 @@
     <col min="2" max="2" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>7002</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
+      <c r="C2">
+        <v>7011</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>7003</v>
       </c>
@@ -418,7 +433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>7004</v>
       </c>
@@ -426,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>7006</v>
       </c>
